--- a/data/trans_camb/P16B06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>50,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>50,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>50,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>50,12</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,46%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12,2</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-17,18; 38,5</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 47,74</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 22,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 25,23</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-17,22; 72,05</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 91,36</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 29,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 34,85</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 30,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 21,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 16,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 17,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 16,16</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 27,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 21,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 21,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 19,44</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 52,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,14; 40,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 12,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 17,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 15,88</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 111,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,19; 71,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 14,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 21,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 19,27</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; 17,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,8; 12,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 5,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 4,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 7,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 4,99</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,87%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,93; 22,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 15,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 5,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 5,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 7,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 5,44</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 16,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 14,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 7,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 6,12</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 6,8</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 19,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 17,99</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 8,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 6,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 9,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 7,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; 46,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 35,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-5,09; 30,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-1,84; 24,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-2,61; 29,46</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,46%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100,46%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100,46%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>100,46%</t>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,56; 86,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 91,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 55,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 49,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 33,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 41,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,2</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 38,5</t>
+          <t>0,0; 31,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,74</t>
+          <t>0,0; 30,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 21,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 0,0</t>
+          <t>-5,34; 16,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 22,86</t>
+          <t>-0,38; 17,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 25,23</t>
+          <t>-2,48; 16,16</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 72,05</t>
+          <t>0,0; 46,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,36</t>
+          <t>0,0; 43,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 27,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 0,0</t>
+          <t>-5,36; 21,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 29,63</t>
+          <t>-0,38; 21,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 34,85</t>
+          <t>-2,5; 19,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>3,94</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,9</t>
+          <t>0,0; 52,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,32</t>
+          <t>-11,14; 40,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 21,65</t>
+          <t>0,0; 14,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 16,82</t>
+          <t>-2,96; 12,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 17,81</t>
+          <t>1,71; 17,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 16,16</t>
+          <t>-2,32; 15,88</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,85</t>
+          <t>0,0; 111,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,5</t>
+          <t>-11,19; 71,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 27,64</t>
+          <t>0,0; 16,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 21,06</t>
+          <t>-3,03; 14,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 21,79</t>
+          <t>1,74; 21,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 19,44</t>
+          <t>-2,39; 19,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,55</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,54</t>
+          <t>-7,01; 17,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 40,01</t>
+          <t>-16,8; 12,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,28</t>
+          <t>-9,82; 5,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 12,33</t>
+          <t>-9,53; 4,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 17,99</t>
+          <t>-5,54; 7,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 15,88</t>
+          <t>-7,69; 4,99</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>-1,87%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 111,83</t>
+          <t>-6,93; 22,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 71,79</t>
+          <t>-17,73; 15,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,66</t>
+          <t>-10,16; 5,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 14,4</t>
+          <t>-9,72; 5,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,74; 21,93</t>
+          <t>-5,65; 7,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 19,27</t>
+          <t>-8,06; 5,44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 17,97</t>
+          <t>0,09; 16,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 12,89</t>
+          <t>-2,1; 14,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 5,36</t>
+          <t>-0,64; 7,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 4,77</t>
+          <t>-2,75; 6,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 7,11</t>
+          <t>0,84; 8,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 4,99</t>
+          <t>-1,28; 6,8</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,95%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 22,61</t>
+          <t>0,16; 19,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 15,05</t>
+          <t>-2,05; 17,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 5,74</t>
+          <t>-0,65; 8,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 5,13</t>
+          <t>-2,86; 6,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 7,76</t>
+          <t>0,87; 9,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 5,44</t>
+          <t>-1,33; 7,61</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>6,82</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 16,2</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 14,6</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 7,87</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 6,12</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 8,47</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 6,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>7,53%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3,0%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 19,59</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 17,99</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 8,68</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 6,76</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 9,38</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 7,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 46,86</t>
+          <t>-13,5; 46,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,74</t>
+          <t>0,0; 47,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,46</t>
+          <t>0,0; 31,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 30,82</t>
+          <t>-5,02; 31,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 24,84</t>
+          <t>-1,83; 27,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 29,46</t>
+          <t>-2,66; 25,94</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 86,1</t>
+          <t>-13,65; 81,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,36</t>
+          <t>0,0; 91,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,26</t>
+          <t>0,0; 45,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 49,62</t>
+          <t>-5,02; 46,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 33,73</t>
+          <t>-1,83; 39,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 41,95</t>
+          <t>-2,66; 35,34</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,9</t>
+          <t>0,0; 29,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,32</t>
+          <t>0,0; 27,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 21,65</t>
+          <t>-1,33; 20,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 16,82</t>
+          <t>-5,09; 19,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 17,81</t>
+          <t>-0,3; 16,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 16,16</t>
+          <t>-2,55; 15,55</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,85</t>
+          <t>0,0; 42,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,5</t>
+          <t>0,0; 38,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 27,64</t>
+          <t>-1,33; 26,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 21,06</t>
+          <t>-5,14; 25,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 21,79</t>
+          <t>-0,27; 20,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 19,44</t>
+          <t>-2,56; 18,54</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,54</t>
+          <t>0,0; 46,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 40,01</t>
+          <t>-10,86; 46,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,28</t>
+          <t>0,0; 14,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 12,33</t>
+          <t>-1,92; 14,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 17,99</t>
+          <t>1,73; 18,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 15,88</t>
+          <t>-2,43; 16,68</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 111,83</t>
+          <t>0,0; 86,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 71,79</t>
+          <t>-11,03; 85,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,66</t>
+          <t>0,0; 16,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 14,4</t>
+          <t>-1,94; 16,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 21,93</t>
+          <t>1,76; 23,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 19,27</t>
+          <t>-2,42; 20,29</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 17,97</t>
+          <t>-5,51; 18,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 12,89</t>
+          <t>-17,02; 12,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 5,36</t>
+          <t>-11,43; 4,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 4,77</t>
+          <t>-9,72; 4,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 7,11</t>
+          <t>-6,77; 6,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 4,99</t>
+          <t>-8,62; 4,6</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 22,61</t>
+          <t>-5,59; 23,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 15,05</t>
+          <t>-17,69; 14,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 5,74</t>
+          <t>-11,65; 4,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 5,13</t>
+          <t>-9,97; 4,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 7,76</t>
+          <t>-6,91; 7,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 5,44</t>
+          <t>-9,0; 5,06</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 16,2</t>
+          <t>-0,22; 16,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 14,6</t>
+          <t>-2,77; 14,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 7,87</t>
+          <t>-0,69; 7,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,12</t>
+          <t>-3,04; 5,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,47</t>
+          <t>0,7; 8,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,8</t>
+          <t>-1,47; 6,59</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,16; 19,59</t>
+          <t>-0,2; 20,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 17,99</t>
+          <t>-2,93; 17,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 8,68</t>
+          <t>-0,71; 8,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,76</t>
+          <t>-3,12; 6,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,38</t>
+          <t>0,76; 9,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,61</t>
+          <t>-1,51; 7,35</t>
         </is>
       </c>
     </row>
